--- a/Financials/Yearly/CX_YR_FIN.xlsx
+++ b/Financials/Yearly/CX_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04684A43-91FD-4FF3-BC0D-28F9AFBC44E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CX" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CX</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13706800</v>
+        <v>13350500</v>
       </c>
       <c r="E8" s="3">
-        <v>13272100</v>
+        <v>12927200</v>
       </c>
       <c r="F8" s="3">
-        <v>11644800</v>
+        <v>11342100</v>
       </c>
       <c r="G8" s="3">
-        <v>10616900</v>
+        <v>10341000</v>
       </c>
       <c r="H8" s="3">
-        <v>10108600</v>
+        <v>9845900</v>
       </c>
       <c r="I8" s="3">
-        <v>10462600</v>
+        <v>10190700</v>
       </c>
       <c r="J8" s="3">
-        <v>10083000</v>
+        <v>9821000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9002300</v>
+        <v>8768300</v>
       </c>
       <c r="E9" s="3">
-        <v>8519000</v>
+        <v>8297600</v>
       </c>
       <c r="F9" s="3">
-        <v>7673600</v>
+        <v>7474200</v>
       </c>
       <c r="G9" s="3">
-        <v>7154800</v>
+        <v>6968900</v>
       </c>
       <c r="H9" s="3">
-        <v>14095900</v>
+        <v>13729600</v>
       </c>
       <c r="I9" s="3">
-        <v>7365600</v>
+        <v>7174100</v>
       </c>
       <c r="J9" s="3">
-        <v>7230500</v>
+        <v>7042600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4704500</v>
+        <v>4582200</v>
       </c>
       <c r="E10" s="3">
-        <v>4753100</v>
+        <v>4629600</v>
       </c>
       <c r="F10" s="3">
-        <v>3971100</v>
+        <v>3867900</v>
       </c>
       <c r="G10" s="3">
-        <v>3462100</v>
+        <v>3372100</v>
       </c>
       <c r="H10" s="3">
-        <v>-3987300</v>
+        <v>-3883700</v>
       </c>
       <c r="I10" s="3">
-        <v>3097100</v>
+        <v>3016600</v>
       </c>
       <c r="J10" s="3">
-        <v>2852500</v>
+        <v>2778400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,51 +889,51 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-20400</v>
+        <v>-19900</v>
       </c>
       <c r="E14" s="3">
-        <v>175000</v>
+        <v>170500</v>
       </c>
       <c r="F14" s="3">
-        <v>125400</v>
+        <v>122200</v>
       </c>
       <c r="G14" s="3">
-        <v>438600</v>
+        <v>427200</v>
       </c>
       <c r="H14" s="3">
-        <v>133600</v>
+        <v>130100</v>
       </c>
       <c r="I14" s="3">
-        <v>251700</v>
+        <v>245200</v>
       </c>
       <c r="J14" s="3">
-        <v>197000</v>
+        <v>191900</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>98000</v>
+        <v>95500</v>
       </c>
       <c r="E15" s="3">
-        <v>96200</v>
+        <v>93700</v>
       </c>
       <c r="F15" s="3">
-        <v>79900</v>
+        <v>77800</v>
       </c>
       <c r="G15" s="3">
-        <v>70300</v>
+        <v>68500</v>
       </c>
       <c r="H15" s="3">
-        <v>74400</v>
+        <v>72500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11958700</v>
+        <v>11647900</v>
       </c>
       <c r="E17" s="3">
-        <v>11473400</v>
+        <v>11175200</v>
       </c>
       <c r="F17" s="3">
-        <v>10378700</v>
+        <v>10108900</v>
       </c>
       <c r="G17" s="3">
-        <v>9724400</v>
+        <v>9471700</v>
       </c>
       <c r="H17" s="3">
-        <v>9343100</v>
+        <v>9100300</v>
       </c>
       <c r="I17" s="3">
-        <v>9851500</v>
+        <v>9595500</v>
       </c>
       <c r="J17" s="3">
-        <v>9731700</v>
+        <v>9478800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1748100</v>
+        <v>1702600</v>
       </c>
       <c r="E18" s="3">
-        <v>1798700</v>
+        <v>1751900</v>
       </c>
       <c r="F18" s="3">
-        <v>1266100</v>
+        <v>1233200</v>
       </c>
       <c r="G18" s="3">
-        <v>892500</v>
+        <v>869300</v>
       </c>
       <c r="H18" s="3">
-        <v>765500</v>
+        <v>745600</v>
       </c>
       <c r="I18" s="3">
-        <v>611100</v>
+        <v>595200</v>
       </c>
       <c r="J18" s="3">
-        <v>351300</v>
+        <v>342100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,61 +1020,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1022800</v>
+        <v>-996200</v>
       </c>
       <c r="E20" s="3">
-        <v>-866100</v>
+        <v>-843600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1082200</v>
+        <v>-1054100</v>
       </c>
       <c r="G20" s="3">
-        <v>-990700</v>
+        <v>-965000</v>
       </c>
       <c r="H20" s="3">
-        <v>-953800</v>
+        <v>-929000</v>
       </c>
       <c r="I20" s="3">
-        <v>90500</v>
+        <v>88200</v>
       </c>
       <c r="J20" s="3">
-        <v>-135300</v>
+        <v>-131800</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1568400</v>
+        <v>1532800</v>
       </c>
       <c r="E21" s="3">
-        <v>1775600</v>
+        <v>1734600</v>
       </c>
       <c r="F21" s="3">
-        <v>956700</v>
+        <v>936500</v>
       </c>
       <c r="G21" s="3">
-        <v>648600</v>
+        <v>636300</v>
       </c>
       <c r="H21" s="3">
-        <v>558600</v>
+        <v>548600</v>
       </c>
       <c r="I21" s="3">
-        <v>1607600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1140500</v>
+        <v>1571300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1059,68 +1094,68 @@
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>973600</v>
+        <v>948300</v>
       </c>
       <c r="J22" s="3">
-        <v>882900</v>
+        <v>859900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>725300</v>
+        <v>706400</v>
       </c>
       <c r="E23" s="3">
-        <v>932600</v>
+        <v>908400</v>
       </c>
       <c r="F23" s="3">
-        <v>183900</v>
+        <v>179200</v>
       </c>
       <c r="G23" s="3">
-        <v>-98200</v>
+        <v>-95700</v>
       </c>
       <c r="H23" s="3">
-        <v>-188300</v>
+        <v>-183400</v>
       </c>
       <c r="I23" s="3">
-        <v>-272000</v>
+        <v>-264900</v>
       </c>
       <c r="J23" s="3">
-        <v>-666900</v>
+        <v>-649600</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27600</v>
+        <v>26900</v>
       </c>
       <c r="E24" s="3">
-        <v>165900</v>
+        <v>161600</v>
       </c>
       <c r="F24" s="3">
-        <v>125700</v>
+        <v>122500</v>
       </c>
       <c r="G24" s="3">
-        <v>208200</v>
+        <v>202700</v>
       </c>
       <c r="H24" s="3">
-        <v>327200</v>
+        <v>318700</v>
       </c>
       <c r="I24" s="3">
-        <v>323800</v>
+        <v>315300</v>
       </c>
       <c r="J24" s="3">
-        <v>648200</v>
+        <v>631300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>697700</v>
+        <v>679500</v>
       </c>
       <c r="E26" s="3">
-        <v>766700</v>
+        <v>746700</v>
       </c>
       <c r="F26" s="3">
-        <v>58200</v>
+        <v>56700</v>
       </c>
       <c r="G26" s="3">
-        <v>-306400</v>
+        <v>-298400</v>
       </c>
       <c r="H26" s="3">
-        <v>-515500</v>
+        <v>-502100</v>
       </c>
       <c r="I26" s="3">
-        <v>-595700</v>
+        <v>-580200</v>
       </c>
       <c r="J26" s="3">
-        <v>-1315100</v>
+        <v>-1280900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>622400</v>
+        <v>606300</v>
       </c>
       <c r="E27" s="3">
-        <v>704400</v>
+        <v>686100</v>
       </c>
       <c r="F27" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="G27" s="3">
-        <v>-365000</v>
+        <v>-355500</v>
       </c>
       <c r="H27" s="3">
-        <v>-580400</v>
+        <v>-565400</v>
       </c>
       <c r="I27" s="3">
-        <v>-620500</v>
+        <v>-604300</v>
       </c>
       <c r="J27" s="3">
-        <v>-1305100</v>
+        <v>-1271200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,24 +1263,24 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>185800</v>
+        <v>181000</v>
       </c>
       <c r="E29" s="3">
-        <v>40800</v>
+        <v>39700</v>
       </c>
       <c r="F29" s="3">
-        <v>54600</v>
+        <v>53200</v>
       </c>
       <c r="G29" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H29" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1022800</v>
+        <v>996200</v>
       </c>
       <c r="E32" s="3">
-        <v>866100</v>
+        <v>843600</v>
       </c>
       <c r="F32" s="3">
-        <v>1082200</v>
+        <v>1054100</v>
       </c>
       <c r="G32" s="3">
-        <v>990700</v>
+        <v>965000</v>
       </c>
       <c r="H32" s="3">
-        <v>953800</v>
+        <v>929000</v>
       </c>
       <c r="I32" s="3">
-        <v>-90500</v>
+        <v>-88200</v>
       </c>
       <c r="J32" s="3">
-        <v>135300</v>
+        <v>131800</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>808200</v>
+        <v>787200</v>
       </c>
       <c r="E33" s="3">
-        <v>745200</v>
+        <v>725800</v>
       </c>
       <c r="F33" s="3">
-        <v>63800</v>
+        <v>62100</v>
       </c>
       <c r="G33" s="3">
-        <v>-360200</v>
+        <v>-350800</v>
       </c>
       <c r="H33" s="3">
-        <v>-575300</v>
+        <v>-560300</v>
       </c>
       <c r="I33" s="3">
-        <v>-620500</v>
+        <v>-604300</v>
       </c>
       <c r="J33" s="3">
-        <v>-1305100</v>
+        <v>-1271200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>808200</v>
+        <v>787200</v>
       </c>
       <c r="E35" s="3">
-        <v>745200</v>
+        <v>725800</v>
       </c>
       <c r="F35" s="3">
-        <v>63800</v>
+        <v>62100</v>
       </c>
       <c r="G35" s="3">
-        <v>-360200</v>
+        <v>-350800</v>
       </c>
       <c r="H35" s="3">
-        <v>-575300</v>
+        <v>-560300</v>
       </c>
       <c r="I35" s="3">
-        <v>-620500</v>
+        <v>-604300</v>
       </c>
       <c r="J35" s="3">
-        <v>-1305100</v>
+        <v>-1271200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,42 +1510,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>965900</v>
+        <v>940800</v>
       </c>
       <c r="E41" s="3">
-        <v>1233600</v>
+        <v>1201600</v>
       </c>
       <c r="F41" s="3">
-        <v>811400</v>
+        <v>790300</v>
       </c>
       <c r="G41" s="3">
-        <v>1331500</v>
+        <v>1296900</v>
       </c>
       <c r="H41" s="3">
-        <v>805800</v>
+        <v>784900</v>
       </c>
       <c r="I41" s="3">
-        <v>402600</v>
+        <v>392100</v>
       </c>
       <c r="J41" s="3">
-        <v>325100</v>
+        <v>316700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>184400</v>
+        <v>179600</v>
       </c>
       <c r="E42" s="3">
-        <v>161100</v>
+        <v>156900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1522,203 +1557,203 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>260000</v>
+        <v>253300</v>
       </c>
       <c r="J42" s="3">
-        <v>531300</v>
+        <v>517500</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3425400</v>
+        <v>3336400</v>
       </c>
       <c r="E43" s="3">
-        <v>3481100</v>
+        <v>3390600</v>
       </c>
       <c r="F43" s="3">
-        <v>1730600</v>
+        <v>1685600</v>
       </c>
       <c r="G43" s="3">
-        <v>1666800</v>
+        <v>1623400</v>
       </c>
       <c r="H43" s="3">
-        <v>1751300</v>
+        <v>1705800</v>
       </c>
       <c r="I43" s="3">
-        <v>1589700</v>
+        <v>1548300</v>
       </c>
       <c r="J43" s="3">
-        <v>1670400</v>
+        <v>1627000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1830200</v>
+        <v>1782700</v>
       </c>
       <c r="E44" s="3">
-        <v>937900</v>
+        <v>913500</v>
       </c>
       <c r="F44" s="3">
-        <v>940700</v>
+        <v>916300</v>
       </c>
       <c r="G44" s="3">
-        <v>1902200</v>
+        <v>1852700</v>
       </c>
       <c r="H44" s="3">
-        <v>901900</v>
+        <v>878500</v>
       </c>
       <c r="I44" s="3">
-        <v>875400</v>
+        <v>852600</v>
       </c>
       <c r="J44" s="3">
-        <v>937400</v>
+        <v>913100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>176500</v>
+        <v>171900</v>
       </c>
       <c r="E45" s="3">
-        <v>1238800</v>
+        <v>1206600</v>
       </c>
       <c r="F45" s="3">
-        <v>428900</v>
+        <v>417800</v>
       </c>
       <c r="G45" s="3">
-        <v>505900</v>
+        <v>492700</v>
       </c>
       <c r="H45" s="3">
-        <v>207400</v>
+        <v>202000</v>
       </c>
       <c r="I45" s="3">
-        <v>234800</v>
+        <v>228700</v>
       </c>
       <c r="J45" s="3">
-        <v>210200</v>
+        <v>204800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3795300</v>
+        <v>3696700</v>
       </c>
       <c r="E46" s="3">
-        <v>4696200</v>
+        <v>4574200</v>
       </c>
       <c r="F46" s="3">
-        <v>3911600</v>
+        <v>3810000</v>
       </c>
       <c r="G46" s="3">
-        <v>3767900</v>
+        <v>3669900</v>
       </c>
       <c r="H46" s="3">
-        <v>3666400</v>
+        <v>3571200</v>
       </c>
       <c r="I46" s="3">
-        <v>3362300</v>
+        <v>3275000</v>
       </c>
       <c r="J46" s="3">
-        <v>3674400</v>
+        <v>3578900</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1066700</v>
+        <v>1038900</v>
       </c>
       <c r="E47" s="3">
-        <v>1313100</v>
+        <v>1279000</v>
       </c>
       <c r="F47" s="3">
-        <v>992900</v>
+        <v>967100</v>
       </c>
       <c r="G47" s="3">
-        <v>1344200</v>
+        <v>1309300</v>
       </c>
       <c r="H47" s="3">
-        <v>1119500</v>
+        <v>1090400</v>
       </c>
       <c r="I47" s="3">
-        <v>880300</v>
+        <v>857500</v>
       </c>
       <c r="J47" s="3">
-        <v>1015700</v>
+        <v>989300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24655400</v>
+        <v>24014600</v>
       </c>
       <c r="E48" s="3">
-        <v>24440200</v>
+        <v>23805000</v>
       </c>
       <c r="F48" s="3">
-        <v>11370500</v>
+        <v>11075000</v>
       </c>
       <c r="G48" s="3">
-        <v>4821100</v>
+        <v>4695800</v>
       </c>
       <c r="H48" s="3">
-        <v>10923600</v>
+        <v>10639700</v>
       </c>
       <c r="I48" s="3">
-        <v>11273200</v>
+        <v>10980200</v>
       </c>
       <c r="J48" s="3">
-        <v>12409900</v>
+        <v>12087400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24947300</v>
+        <v>24299000</v>
       </c>
       <c r="E49" s="3">
-        <v>26285200</v>
+        <v>25602100</v>
       </c>
       <c r="F49" s="3">
-        <v>11698900</v>
+        <v>11394800</v>
       </c>
       <c r="G49" s="3">
-        <v>20510100</v>
+        <v>19977100</v>
       </c>
       <c r="H49" s="3">
-        <v>9289300</v>
+        <v>9047900</v>
       </c>
       <c r="I49" s="3">
-        <v>9214000</v>
+        <v>8974600</v>
       </c>
       <c r="J49" s="3">
-        <v>10039200</v>
+        <v>9778300</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>786800</v>
+        <v>766300</v>
       </c>
       <c r="E52" s="3">
-        <v>851600</v>
+        <v>829500</v>
       </c>
       <c r="F52" s="3">
-        <v>820300</v>
+        <v>799000</v>
       </c>
       <c r="G52" s="3">
-        <v>3199000</v>
+        <v>3115800</v>
       </c>
       <c r="H52" s="3">
-        <v>1345700</v>
+        <v>1310700</v>
       </c>
       <c r="I52" s="3">
-        <v>692800</v>
+        <v>674800</v>
       </c>
       <c r="J52" s="3">
-        <v>1622500</v>
+        <v>1580300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30144400</v>
+        <v>29361000</v>
       </c>
       <c r="E54" s="3">
-        <v>31845600</v>
+        <v>31017900</v>
       </c>
       <c r="F54" s="3">
-        <v>28794200</v>
+        <v>28045900</v>
       </c>
       <c r="G54" s="3">
-        <v>27344400</v>
+        <v>26633800</v>
       </c>
       <c r="H54" s="3">
-        <v>26344500</v>
+        <v>25659800</v>
       </c>
       <c r="I54" s="3">
-        <v>25422700</v>
+        <v>24762000</v>
       </c>
       <c r="J54" s="3">
-        <v>28761700</v>
+        <v>28014200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4930600</v>
+        <v>4802500</v>
       </c>
       <c r="E57" s="3">
-        <v>4283900</v>
+        <v>4172600</v>
       </c>
       <c r="F57" s="3">
-        <v>1524400</v>
+        <v>1484800</v>
       </c>
       <c r="G57" s="3">
-        <v>1288800</v>
+        <v>1255300</v>
       </c>
       <c r="H57" s="3">
-        <v>1178900</v>
+        <v>1148300</v>
       </c>
       <c r="I57" s="3">
-        <v>1311000</v>
+        <v>1277000</v>
       </c>
       <c r="J57" s="3">
-        <v>1286300</v>
+        <v>1252900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2212800</v>
+        <v>2155300</v>
       </c>
       <c r="E58" s="3">
-        <v>703900</v>
+        <v>685600</v>
       </c>
       <c r="F58" s="3">
-        <v>839200</v>
+        <v>817400</v>
       </c>
       <c r="G58" s="3">
-        <v>1385900</v>
+        <v>1349900</v>
       </c>
       <c r="H58" s="3">
-        <v>505900</v>
+        <v>492700</v>
       </c>
       <c r="I58" s="3">
-        <v>82900</v>
+        <v>80700</v>
       </c>
       <c r="J58" s="3">
-        <v>283100</v>
+        <v>275800</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3475400</v>
+        <v>3385100</v>
       </c>
       <c r="E59" s="3">
-        <v>3320400</v>
+        <v>3234100</v>
       </c>
       <c r="F59" s="3">
-        <v>1490000</v>
+        <v>1451300</v>
       </c>
       <c r="G59" s="3">
-        <v>3194400</v>
+        <v>3111400</v>
       </c>
       <c r="H59" s="3">
-        <v>1477900</v>
+        <v>1439500</v>
       </c>
       <c r="I59" s="3">
-        <v>1462500</v>
+        <v>1424500</v>
       </c>
       <c r="J59" s="3">
-        <v>1857300</v>
+        <v>1809000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5962600</v>
+        <v>5807600</v>
       </c>
       <c r="E60" s="3">
-        <v>4354400</v>
+        <v>4241200</v>
       </c>
       <c r="F60" s="3">
-        <v>3853700</v>
+        <v>3753600</v>
       </c>
       <c r="G60" s="3">
-        <v>4259900</v>
+        <v>4149200</v>
       </c>
       <c r="H60" s="3">
-        <v>3162700</v>
+        <v>3080500</v>
       </c>
       <c r="I60" s="3">
-        <v>2856400</v>
+        <v>2782200</v>
       </c>
       <c r="J60" s="3">
-        <v>3426800</v>
+        <v>3337700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10063000</v>
+        <v>9801500</v>
       </c>
       <c r="E61" s="3">
-        <v>12547900</v>
+        <v>12221800</v>
       </c>
       <c r="F61" s="3">
-        <v>13402100</v>
+        <v>13053800</v>
       </c>
       <c r="G61" s="3">
-        <v>11597600</v>
+        <v>11296200</v>
       </c>
       <c r="H61" s="3">
-        <v>11722900</v>
+        <v>11418300</v>
       </c>
       <c r="I61" s="3">
-        <v>11175000</v>
+        <v>10884600</v>
       </c>
       <c r="J61" s="3">
-        <v>12584100</v>
+        <v>12257000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4326500</v>
+        <v>4214000</v>
       </c>
       <c r="E62" s="3">
-        <v>5438900</v>
+        <v>5297500</v>
       </c>
       <c r="F62" s="3">
-        <v>2842300</v>
+        <v>2768500</v>
       </c>
       <c r="G62" s="3">
-        <v>3670500</v>
+        <v>3575100</v>
       </c>
       <c r="H62" s="3">
-        <v>3583100</v>
+        <v>3490000</v>
       </c>
       <c r="I62" s="3">
-        <v>3128900</v>
+        <v>3047600</v>
       </c>
       <c r="J62" s="3">
-        <v>3633500</v>
+        <v>3539000</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20610800</v>
+        <v>20075200</v>
       </c>
       <c r="E66" s="3">
-        <v>22936800</v>
+        <v>22340700</v>
       </c>
       <c r="F66" s="3">
-        <v>21175500</v>
+        <v>20625200</v>
       </c>
       <c r="G66" s="3">
-        <v>20382900</v>
+        <v>19853100</v>
       </c>
       <c r="H66" s="3">
-        <v>19262100</v>
+        <v>18761500</v>
       </c>
       <c r="I66" s="3">
-        <v>17929600</v>
+        <v>17463700</v>
       </c>
       <c r="J66" s="3">
-        <v>20525900</v>
+        <v>19992400</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2236,14 +2271,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>104700</v>
+        <v>101900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1136500</v>
+        <v>1106900</v>
       </c>
       <c r="E72" s="3">
-        <v>1402100</v>
+        <v>1365700</v>
       </c>
       <c r="F72" s="3">
-        <v>391900</v>
+        <v>381700</v>
       </c>
       <c r="G72" s="3">
-        <v>1953000</v>
+        <v>1902200</v>
       </c>
       <c r="H72" s="3">
-        <v>1561100</v>
+        <v>1520500</v>
       </c>
       <c r="I72" s="3">
-        <v>575700</v>
+        <v>560700</v>
       </c>
       <c r="J72" s="3">
-        <v>1426300</v>
+        <v>1389200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9533500</v>
+        <v>9285800</v>
       </c>
       <c r="E76" s="3">
-        <v>8908800</v>
+        <v>8677300</v>
       </c>
       <c r="F76" s="3">
-        <v>7618700</v>
+        <v>7420700</v>
       </c>
       <c r="G76" s="3">
-        <v>6961600</v>
+        <v>6780600</v>
       </c>
       <c r="H76" s="3">
-        <v>7082400</v>
+        <v>6898400</v>
       </c>
       <c r="I76" s="3">
-        <v>7388300</v>
+        <v>7196400</v>
       </c>
       <c r="J76" s="3">
-        <v>8235900</v>
+        <v>8021800</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>808200</v>
+        <v>787200</v>
       </c>
       <c r="E81" s="3">
-        <v>745200</v>
+        <v>725800</v>
       </c>
       <c r="F81" s="3">
-        <v>63800</v>
+        <v>62100</v>
       </c>
       <c r="G81" s="3">
-        <v>-360200</v>
+        <v>-350800</v>
       </c>
       <c r="H81" s="3">
-        <v>-575300</v>
+        <v>-560300</v>
       </c>
       <c r="I81" s="3">
-        <v>-620500</v>
+        <v>-604300</v>
       </c>
       <c r="J81" s="3">
-        <v>-1305100</v>
+        <v>-1271200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>849200</v>
+        <v>827100</v>
       </c>
       <c r="E83" s="3">
-        <v>849100</v>
+        <v>827100</v>
       </c>
       <c r="F83" s="3">
-        <v>778300</v>
+        <v>758100</v>
       </c>
       <c r="G83" s="3">
-        <v>752300</v>
+        <v>732700</v>
       </c>
       <c r="H83" s="3">
-        <v>752300</v>
+        <v>732700</v>
       </c>
       <c r="I83" s="3">
-        <v>912500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>931200</v>
+        <v>888800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1651900</v>
+        <v>1609000</v>
       </c>
       <c r="E89" s="3">
-        <v>2078700</v>
+        <v>2024700</v>
       </c>
       <c r="F89" s="3">
-        <v>1015100</v>
+        <v>988700</v>
       </c>
       <c r="G89" s="3">
-        <v>636700</v>
+        <v>620200</v>
       </c>
       <c r="H89" s="3">
-        <v>67400</v>
+        <v>65700</v>
       </c>
       <c r="I89" s="3">
-        <v>298600</v>
+        <v>290900</v>
       </c>
       <c r="J89" s="3">
-        <v>344400</v>
+        <v>335500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-571000</v>
+        <v>-556100</v>
       </c>
       <c r="E91" s="3">
-        <v>-290800</v>
+        <v>-283300</v>
       </c>
       <c r="F91" s="3">
-        <v>-514800</v>
+        <v>-501400</v>
       </c>
       <c r="G91" s="3">
-        <v>-690400</v>
+        <v>-625800</v>
       </c>
       <c r="H91" s="3">
-        <v>-646600</v>
+        <v>-567600</v>
       </c>
       <c r="I91" s="3">
-        <v>-297200</v>
+        <v>-289500</v>
       </c>
       <c r="J91" s="3">
-        <v>-169800</v>
+        <v>-165400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>616400</v>
+        <v>600400</v>
       </c>
       <c r="E94" s="3">
-        <v>-290900</v>
+        <v>-283400</v>
       </c>
       <c r="F94" s="3">
-        <v>-426600</v>
+        <v>-415500</v>
       </c>
       <c r="G94" s="3">
-        <v>-353700</v>
+        <v>-344500</v>
       </c>
       <c r="H94" s="3">
-        <v>-286400</v>
+        <v>-278900</v>
       </c>
       <c r="I94" s="3">
-        <v>-118600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-79200</v>
+        <v>-115500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2862,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2266500</v>
+        <v>-2207600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2103700</v>
+        <v>-2049000</v>
       </c>
       <c r="F100" s="3">
-        <v>-662000</v>
+        <v>-644800</v>
       </c>
       <c r="G100" s="3">
-        <v>-458000</v>
+        <v>-446100</v>
       </c>
       <c r="H100" s="3">
-        <v>172700</v>
+        <v>168200</v>
       </c>
       <c r="I100" s="3">
-        <v>-267400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>242600</v>
+        <v>-260500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>111000</v>
+        <v>108100</v>
       </c>
       <c r="E101" s="3">
-        <v>119200</v>
+        <v>116100</v>
       </c>
       <c r="F101" s="3">
-        <v>218600</v>
+        <v>212900</v>
       </c>
       <c r="G101" s="3">
-        <v>37600</v>
+        <v>36600</v>
       </c>
       <c r="H101" s="3">
-        <v>189500</v>
+        <v>184500</v>
       </c>
       <c r="I101" s="3">
-        <v>-106400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-95000</v>
+        <v>-103600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>112800</v>
+        <v>109900</v>
       </c>
       <c r="E102" s="3">
-        <v>-196800</v>
+        <v>-191700</v>
       </c>
       <c r="F102" s="3">
-        <v>145100</v>
+        <v>141400</v>
       </c>
       <c r="G102" s="3">
-        <v>-137400</v>
+        <v>-133800</v>
       </c>
       <c r="H102" s="3">
-        <v>143300</v>
+        <v>139500</v>
       </c>
       <c r="I102" s="3">
-        <v>-193800</v>
+        <v>-188800</v>
       </c>
       <c r="J102" s="3">
-        <v>412800</v>
+        <v>402100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/CX_YR_FIN.xlsx
+++ b/Financials/Yearly/CX_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04684A43-91FD-4FF3-BC0D-28F9AFBC44E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CX" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>CX</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13350500</v>
+        <v>276855000</v>
       </c>
       <c r="E8" s="3">
-        <v>12927200</v>
+        <v>258131000</v>
       </c>
       <c r="F8" s="3">
-        <v>11342100</v>
+        <v>249945000</v>
       </c>
       <c r="G8" s="3">
-        <v>10341000</v>
+        <v>219299000</v>
       </c>
       <c r="H8" s="3">
-        <v>9845900</v>
+        <v>199942000</v>
       </c>
       <c r="I8" s="3">
-        <v>10190700</v>
+        <v>190370000</v>
       </c>
       <c r="J8" s="3">
+        <v>197036000</v>
+      </c>
+      <c r="K8" s="3">
         <v>9821000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8768300</v>
+        <v>182965000</v>
       </c>
       <c r="E9" s="3">
-        <v>8297600</v>
+        <v>169534000</v>
       </c>
       <c r="F9" s="3">
-        <v>7474200</v>
+        <v>160433000</v>
       </c>
       <c r="G9" s="3">
-        <v>6968900</v>
+        <v>144513000</v>
       </c>
       <c r="H9" s="3">
-        <v>13729600</v>
+        <v>134742000</v>
       </c>
       <c r="I9" s="3">
-        <v>7174100</v>
+        <v>265460000</v>
       </c>
       <c r="J9" s="3">
+        <v>138711000</v>
+      </c>
+      <c r="K9" s="3">
         <v>7042600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4582200</v>
+        <v>93890000</v>
       </c>
       <c r="E10" s="3">
-        <v>4629600</v>
+        <v>88597000</v>
       </c>
       <c r="F10" s="3">
-        <v>3867900</v>
+        <v>89512000</v>
       </c>
       <c r="G10" s="3">
-        <v>3372100</v>
+        <v>74786000</v>
       </c>
       <c r="H10" s="3">
-        <v>-3883700</v>
+        <v>65200000</v>
       </c>
       <c r="I10" s="3">
-        <v>3016600</v>
+        <v>-75090000</v>
       </c>
       <c r="J10" s="3">
+        <v>58325000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2778400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +869,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-19900</v>
+        <v>2774000</v>
       </c>
       <c r="E14" s="3">
-        <v>170500</v>
+        <v>-385000</v>
       </c>
       <c r="F14" s="3">
-        <v>122200</v>
+        <v>3296000</v>
       </c>
       <c r="G14" s="3">
-        <v>427200</v>
+        <v>2362000</v>
       </c>
       <c r="H14" s="3">
-        <v>130100</v>
+        <v>8259000</v>
       </c>
       <c r="I14" s="3">
-        <v>245200</v>
+        <v>2516000</v>
       </c>
       <c r="J14" s="3">
+        <v>4740000</v>
+      </c>
+      <c r="K14" s="3">
         <v>191900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>95500</v>
+        <v>1889000</v>
       </c>
       <c r="E15" s="3">
-        <v>93700</v>
+        <v>1846000</v>
       </c>
       <c r="F15" s="3">
-        <v>77800</v>
+        <v>1811000</v>
       </c>
       <c r="G15" s="3">
-        <v>68500</v>
+        <v>1504000</v>
       </c>
       <c r="H15" s="3">
-        <v>72500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>1324000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1401000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11647900</v>
+        <v>249700000</v>
       </c>
       <c r="E17" s="3">
-        <v>11175200</v>
+        <v>225211000</v>
       </c>
       <c r="F17" s="3">
-        <v>10108900</v>
+        <v>216072000</v>
       </c>
       <c r="G17" s="3">
-        <v>9471700</v>
+        <v>195455000</v>
       </c>
       <c r="H17" s="3">
-        <v>9100300</v>
+        <v>183134000</v>
       </c>
       <c r="I17" s="3">
-        <v>9595500</v>
+        <v>175953000</v>
       </c>
       <c r="J17" s="3">
+        <v>185528000</v>
+      </c>
+      <c r="K17" s="3">
         <v>9478800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1702600</v>
+        <v>27155000</v>
       </c>
       <c r="E18" s="3">
-        <v>1751900</v>
+        <v>32920000</v>
       </c>
       <c r="F18" s="3">
-        <v>1233200</v>
+        <v>33873000</v>
       </c>
       <c r="G18" s="3">
-        <v>869300</v>
+        <v>23844000</v>
       </c>
       <c r="H18" s="3">
-        <v>745600</v>
+        <v>16808000</v>
       </c>
       <c r="I18" s="3">
-        <v>595200</v>
+        <v>14417000</v>
       </c>
       <c r="J18" s="3">
+        <v>11508000</v>
+      </c>
+      <c r="K18" s="3">
         <v>342100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1017,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-996200</v>
+        <v>-11644000</v>
       </c>
       <c r="E20" s="3">
-        <v>-843600</v>
+        <v>-19261000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1054100</v>
+        <v>-16310000</v>
       </c>
       <c r="G20" s="3">
-        <v>-965000</v>
+        <v>-20380000</v>
       </c>
       <c r="H20" s="3">
-        <v>-929000</v>
+        <v>-18658000</v>
       </c>
       <c r="I20" s="3">
-        <v>88200</v>
+        <v>-17963000</v>
       </c>
       <c r="J20" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-131800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1532800</v>
+        <v>31581000</v>
       </c>
       <c r="E21" s="3">
-        <v>1734600</v>
+        <v>29651000</v>
       </c>
       <c r="F21" s="3">
-        <v>936500</v>
+        <v>33554000</v>
       </c>
       <c r="G21" s="3">
-        <v>636300</v>
+        <v>18122000</v>
       </c>
       <c r="H21" s="3">
-        <v>548600</v>
+        <v>12317000</v>
       </c>
       <c r="I21" s="3">
-        <v>1571300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>10621000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>30397000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,69 +1098,78 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>948300</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>18335000</v>
+      </c>
+      <c r="K22" s="3">
         <v>859900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>706400</v>
+        <v>15511000</v>
       </c>
       <c r="E23" s="3">
-        <v>908400</v>
+        <v>13659000</v>
       </c>
       <c r="F23" s="3">
-        <v>179200</v>
+        <v>17563000</v>
       </c>
       <c r="G23" s="3">
-        <v>-95700</v>
+        <v>3464000</v>
       </c>
       <c r="H23" s="3">
-        <v>-183400</v>
+        <v>-1850000</v>
       </c>
       <c r="I23" s="3">
-        <v>-264900</v>
+        <v>-3546000</v>
       </c>
       <c r="J23" s="3">
+        <v>-5122000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-649600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26900</v>
+        <v>4467000</v>
       </c>
       <c r="E24" s="3">
-        <v>161600</v>
+        <v>520000</v>
       </c>
       <c r="F24" s="3">
-        <v>122500</v>
+        <v>3125000</v>
       </c>
       <c r="G24" s="3">
-        <v>202700</v>
+        <v>2368000</v>
       </c>
       <c r="H24" s="3">
-        <v>318700</v>
+        <v>3920000</v>
       </c>
       <c r="I24" s="3">
-        <v>315300</v>
+        <v>6162000</v>
       </c>
       <c r="J24" s="3">
+        <v>6097000</v>
+      </c>
+      <c r="K24" s="3">
         <v>631300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>679500</v>
+        <v>11044000</v>
       </c>
       <c r="E26" s="3">
-        <v>746700</v>
+        <v>13139000</v>
       </c>
       <c r="F26" s="3">
-        <v>56700</v>
+        <v>14438000</v>
       </c>
       <c r="G26" s="3">
-        <v>-298400</v>
+        <v>1096000</v>
       </c>
       <c r="H26" s="3">
-        <v>-502100</v>
+        <v>-5770000</v>
       </c>
       <c r="I26" s="3">
-        <v>-580200</v>
+        <v>-9708000</v>
       </c>
       <c r="J26" s="3">
+        <v>-11219000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1280900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>606300</v>
+        <v>10255000</v>
       </c>
       <c r="E27" s="3">
-        <v>686100</v>
+        <v>11722000</v>
       </c>
       <c r="F27" s="3">
-        <v>8900</v>
+        <v>13265000</v>
       </c>
       <c r="G27" s="3">
-        <v>-355500</v>
+        <v>173000</v>
       </c>
       <c r="H27" s="3">
-        <v>-565400</v>
+        <v>-6873000</v>
       </c>
       <c r="I27" s="3">
-        <v>-604300</v>
+        <v>-10931000</v>
       </c>
       <c r="J27" s="3">
+        <v>-11685000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1271200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1284,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>181000</v>
+        <v>212000</v>
       </c>
       <c r="E29" s="3">
-        <v>39700</v>
+        <v>3499000</v>
       </c>
       <c r="F29" s="3">
-        <v>53200</v>
+        <v>768000</v>
       </c>
       <c r="G29" s="3">
-        <v>4700</v>
+        <v>1028000</v>
       </c>
       <c r="H29" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>90000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>97000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>996200</v>
+        <v>11644000</v>
       </c>
       <c r="E32" s="3">
-        <v>843600</v>
+        <v>19261000</v>
       </c>
       <c r="F32" s="3">
-        <v>1054100</v>
+        <v>16310000</v>
       </c>
       <c r="G32" s="3">
-        <v>965000</v>
+        <v>20380000</v>
       </c>
       <c r="H32" s="3">
-        <v>929000</v>
+        <v>18658000</v>
       </c>
       <c r="I32" s="3">
-        <v>-88200</v>
+        <v>17963000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1705000</v>
+      </c>
+      <c r="K32" s="3">
         <v>131800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>787200</v>
+        <v>10467000</v>
       </c>
       <c r="E33" s="3">
-        <v>725800</v>
+        <v>15221000</v>
       </c>
       <c r="F33" s="3">
-        <v>62100</v>
+        <v>14033000</v>
       </c>
       <c r="G33" s="3">
-        <v>-350800</v>
+        <v>1201000</v>
       </c>
       <c r="H33" s="3">
-        <v>-560300</v>
+        <v>-6783000</v>
       </c>
       <c r="I33" s="3">
-        <v>-604300</v>
+        <v>-10834000</v>
       </c>
       <c r="J33" s="3">
+        <v>-11685000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1271200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>787200</v>
+        <v>10467000</v>
       </c>
       <c r="E35" s="3">
-        <v>725800</v>
+        <v>15221000</v>
       </c>
       <c r="F35" s="3">
-        <v>62100</v>
+        <v>14033000</v>
       </c>
       <c r="G35" s="3">
-        <v>-350800</v>
+        <v>1201000</v>
       </c>
       <c r="H35" s="3">
-        <v>-560300</v>
+        <v>-6783000</v>
       </c>
       <c r="I35" s="3">
-        <v>-604300</v>
+        <v>-10834000</v>
       </c>
       <c r="J35" s="3">
+        <v>-11685000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1271200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,46 +1560,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>940800</v>
+        <v>6068000</v>
       </c>
       <c r="E41" s="3">
-        <v>1201600</v>
+        <v>18190000</v>
       </c>
       <c r="F41" s="3">
-        <v>790300</v>
+        <v>23232000</v>
       </c>
       <c r="G41" s="3">
-        <v>1296900</v>
+        <v>15280000</v>
       </c>
       <c r="H41" s="3">
-        <v>784900</v>
+        <v>25076000</v>
       </c>
       <c r="I41" s="3">
-        <v>392100</v>
+        <v>15176000</v>
       </c>
       <c r="J41" s="3">
+        <v>7581000</v>
+      </c>
+      <c r="K41" s="3">
         <v>316700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>179600</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>156900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>3472000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3034500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1556,204 +1611,228 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>253300</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>4897000</v>
+      </c>
+      <c r="K42" s="3">
         <v>517500</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3336400</v>
+        <v>35397000</v>
       </c>
       <c r="E43" s="3">
-        <v>3390600</v>
+        <v>64509200</v>
       </c>
       <c r="F43" s="3">
-        <v>1685600</v>
+        <v>65557700</v>
       </c>
       <c r="G43" s="3">
-        <v>1623400</v>
+        <v>32591000</v>
       </c>
       <c r="H43" s="3">
-        <v>1705800</v>
+        <v>31389000</v>
       </c>
       <c r="I43" s="3">
-        <v>1548300</v>
+        <v>32981000</v>
       </c>
       <c r="J43" s="3">
+        <v>29937000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1627000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1782700</v>
+        <v>21248000</v>
       </c>
       <c r="E44" s="3">
-        <v>913500</v>
+        <v>34467300</v>
       </c>
       <c r="F44" s="3">
-        <v>916300</v>
+        <v>17663000</v>
       </c>
       <c r="G44" s="3">
-        <v>1852700</v>
+        <v>17716000</v>
       </c>
       <c r="H44" s="3">
-        <v>878500</v>
+        <v>35822700</v>
       </c>
       <c r="I44" s="3">
-        <v>852600</v>
+        <v>16985000</v>
       </c>
       <c r="J44" s="3">
+        <v>16485000</v>
+      </c>
+      <c r="K44" s="3">
         <v>913100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>171900</v>
+        <v>4547000</v>
       </c>
       <c r="E45" s="3">
-        <v>1206600</v>
+        <v>3324000</v>
       </c>
       <c r="F45" s="3">
-        <v>417800</v>
+        <v>23329000</v>
       </c>
       <c r="G45" s="3">
-        <v>492700</v>
+        <v>8078000</v>
       </c>
       <c r="H45" s="3">
-        <v>202000</v>
+        <v>9526800</v>
       </c>
       <c r="I45" s="3">
-        <v>228700</v>
+        <v>3906000</v>
       </c>
       <c r="J45" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="K45" s="3">
         <v>204800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3696700</v>
+        <v>67260000</v>
       </c>
       <c r="E46" s="3">
-        <v>4574200</v>
+        <v>71474600</v>
       </c>
       <c r="F46" s="3">
-        <v>3810000</v>
+        <v>88441000</v>
       </c>
       <c r="G46" s="3">
-        <v>3669900</v>
+        <v>73665000</v>
       </c>
       <c r="H46" s="3">
-        <v>3571200</v>
+        <v>70958000</v>
       </c>
       <c r="I46" s="3">
-        <v>3275000</v>
+        <v>69048000</v>
       </c>
       <c r="J46" s="3">
+        <v>63321000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3578900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1038900</v>
+        <v>14763000</v>
       </c>
       <c r="E47" s="3">
-        <v>1279000</v>
+        <v>20087600</v>
       </c>
       <c r="F47" s="3">
-        <v>967100</v>
+        <v>24729400</v>
       </c>
       <c r="G47" s="3">
-        <v>1309300</v>
+        <v>18699000</v>
       </c>
       <c r="H47" s="3">
-        <v>1090400</v>
+        <v>25315300</v>
       </c>
       <c r="I47" s="3">
-        <v>857500</v>
+        <v>21082000</v>
       </c>
       <c r="J47" s="3">
+        <v>16579000</v>
+      </c>
+      <c r="K47" s="3">
         <v>989300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24014600</v>
+        <v>224440000</v>
       </c>
       <c r="E48" s="3">
-        <v>23805000</v>
+        <v>464320000</v>
       </c>
       <c r="F48" s="3">
-        <v>11075000</v>
+        <v>460268000</v>
       </c>
       <c r="G48" s="3">
-        <v>4695800</v>
+        <v>214133000</v>
       </c>
       <c r="H48" s="3">
-        <v>10639700</v>
+        <v>90792400</v>
       </c>
       <c r="I48" s="3">
-        <v>10980200</v>
+        <v>205717000</v>
       </c>
       <c r="J48" s="3">
+        <v>212301000</v>
+      </c>
+      <c r="K48" s="3">
         <v>12087400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24299000</v>
+        <v>234598000</v>
       </c>
       <c r="E49" s="3">
-        <v>25602100</v>
+        <v>469818000</v>
       </c>
       <c r="F49" s="3">
-        <v>11394800</v>
+        <v>495014000</v>
       </c>
       <c r="G49" s="3">
-        <v>19977100</v>
+        <v>220318000</v>
       </c>
       <c r="H49" s="3">
-        <v>9047900</v>
+        <v>386255000</v>
       </c>
       <c r="I49" s="3">
-        <v>8974600</v>
+        <v>174940000</v>
       </c>
       <c r="J49" s="3">
+        <v>173522000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9778300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>766300</v>
+        <v>11567000</v>
       </c>
       <c r="E52" s="3">
-        <v>829500</v>
+        <v>14817200</v>
       </c>
       <c r="F52" s="3">
-        <v>799000</v>
+        <v>16038000</v>
       </c>
       <c r="G52" s="3">
-        <v>3115800</v>
+        <v>15449000</v>
       </c>
       <c r="H52" s="3">
-        <v>1310700</v>
+        <v>60244300</v>
       </c>
       <c r="I52" s="3">
-        <v>674800</v>
+        <v>25343000</v>
       </c>
       <c r="J52" s="3">
+        <v>13047000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1580300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29361000</v>
+        <v>552628000</v>
       </c>
       <c r="E54" s="3">
-        <v>31017900</v>
+        <v>567691000</v>
       </c>
       <c r="F54" s="3">
-        <v>28045900</v>
+        <v>599728000</v>
       </c>
       <c r="G54" s="3">
-        <v>26633800</v>
+        <v>542264000</v>
       </c>
       <c r="H54" s="3">
-        <v>25659800</v>
+        <v>514961000</v>
       </c>
       <c r="I54" s="3">
-        <v>24762000</v>
+        <v>496130000</v>
       </c>
       <c r="J54" s="3">
+        <v>478770000</v>
+      </c>
+      <c r="K54" s="3">
         <v>28014200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4802500</v>
+        <v>49846000</v>
       </c>
       <c r="E57" s="3">
-        <v>4172600</v>
+        <v>92855800</v>
       </c>
       <c r="F57" s="3">
-        <v>1484800</v>
+        <v>80676100</v>
       </c>
       <c r="G57" s="3">
-        <v>1255300</v>
+        <v>28709000</v>
       </c>
       <c r="H57" s="3">
-        <v>1148300</v>
+        <v>24271000</v>
       </c>
       <c r="I57" s="3">
-        <v>1277000</v>
+        <v>22202000</v>
       </c>
       <c r="J57" s="3">
+        <v>24690000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1252900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2155300</v>
+        <v>13622000</v>
       </c>
       <c r="E58" s="3">
-        <v>685600</v>
+        <v>41671600</v>
       </c>
       <c r="F58" s="3">
-        <v>817400</v>
+        <v>13256900</v>
       </c>
       <c r="G58" s="3">
-        <v>1349900</v>
+        <v>15805000</v>
       </c>
       <c r="H58" s="3">
-        <v>492700</v>
+        <v>26100400</v>
       </c>
       <c r="I58" s="3">
-        <v>80700</v>
+        <v>9527000</v>
       </c>
       <c r="J58" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="K58" s="3">
         <v>275800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3385100</v>
+        <v>26683000</v>
       </c>
       <c r="E59" s="3">
-        <v>3234100</v>
+        <v>65449800</v>
       </c>
       <c r="F59" s="3">
-        <v>1451300</v>
+        <v>62530600</v>
       </c>
       <c r="G59" s="3">
-        <v>3111400</v>
+        <v>28061000</v>
       </c>
       <c r="H59" s="3">
-        <v>1439500</v>
+        <v>60158500</v>
       </c>
       <c r="I59" s="3">
-        <v>1424500</v>
+        <v>27833000</v>
       </c>
       <c r="J59" s="3">
+        <v>27542000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1809000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5807600</v>
+        <v>90151000</v>
       </c>
       <c r="E60" s="3">
-        <v>4241200</v>
+        <v>112289000</v>
       </c>
       <c r="F60" s="3">
-        <v>3753600</v>
+        <v>82004000</v>
       </c>
       <c r="G60" s="3">
-        <v>4149200</v>
+        <v>72575000</v>
       </c>
       <c r="H60" s="3">
-        <v>3080500</v>
+        <v>80225000</v>
       </c>
       <c r="I60" s="3">
-        <v>2782200</v>
+        <v>59562000</v>
       </c>
       <c r="J60" s="3">
+        <v>53793000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3337700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9801500</v>
+        <v>184005000</v>
       </c>
       <c r="E61" s="3">
-        <v>12221800</v>
+        <v>189510000</v>
       </c>
       <c r="F61" s="3">
-        <v>13053800</v>
+        <v>236307000</v>
       </c>
       <c r="G61" s="3">
-        <v>11296200</v>
+        <v>252393000</v>
       </c>
       <c r="H61" s="3">
-        <v>11418300</v>
+        <v>218410000</v>
       </c>
       <c r="I61" s="3">
-        <v>10884600</v>
+        <v>220771000</v>
       </c>
       <c r="J61" s="3">
+        <v>210452000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12257000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4214000</v>
+        <v>58939000</v>
       </c>
       <c r="E62" s="3">
-        <v>5297500</v>
+        <v>81477800</v>
       </c>
       <c r="F62" s="3">
-        <v>2768500</v>
+        <v>102427000</v>
       </c>
       <c r="G62" s="3">
-        <v>3575100</v>
+        <v>53528000</v>
       </c>
       <c r="H62" s="3">
-        <v>3490000</v>
+        <v>69123400</v>
       </c>
       <c r="I62" s="3">
-        <v>3047600</v>
+        <v>67479000</v>
       </c>
       <c r="J62" s="3">
+        <v>58925000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3539000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20075200</v>
+        <v>363978000</v>
       </c>
       <c r="E66" s="3">
-        <v>22340700</v>
+        <v>388151000</v>
       </c>
       <c r="F66" s="3">
-        <v>20625200</v>
+        <v>431954000</v>
       </c>
       <c r="G66" s="3">
-        <v>19853100</v>
+        <v>398785000</v>
       </c>
       <c r="H66" s="3">
-        <v>18761500</v>
+        <v>383858000</v>
       </c>
       <c r="I66" s="3">
-        <v>17463700</v>
+        <v>362751000</v>
       </c>
       <c r="J66" s="3">
+        <v>337658000</v>
+      </c>
+      <c r="K66" s="3">
         <v>19992400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2271,14 +2404,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>101900</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1971000</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1106900</v>
+        <v>20992000</v>
       </c>
       <c r="E72" s="3">
-        <v>1365700</v>
+        <v>21402400</v>
       </c>
       <c r="F72" s="3">
-        <v>381700</v>
+        <v>26405000</v>
       </c>
       <c r="G72" s="3">
-        <v>1902200</v>
+        <v>7381000</v>
       </c>
       <c r="H72" s="3">
-        <v>1520500</v>
+        <v>36779300</v>
       </c>
       <c r="I72" s="3">
-        <v>560700</v>
+        <v>29399000</v>
       </c>
       <c r="J72" s="3">
+        <v>10841000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1389200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9285800</v>
+        <v>188650000</v>
       </c>
       <c r="E76" s="3">
-        <v>8677300</v>
+        <v>179539000</v>
       </c>
       <c r="F76" s="3">
-        <v>7420700</v>
+        <v>167774000</v>
       </c>
       <c r="G76" s="3">
-        <v>6780600</v>
+        <v>143479000</v>
       </c>
       <c r="H76" s="3">
-        <v>6898400</v>
+        <v>131103000</v>
       </c>
       <c r="I76" s="3">
-        <v>7196400</v>
+        <v>133379000</v>
       </c>
       <c r="J76" s="3">
+        <v>139141000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8021800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>787200</v>
+        <v>10467000</v>
       </c>
       <c r="E81" s="3">
-        <v>725800</v>
+        <v>15221000</v>
       </c>
       <c r="F81" s="3">
-        <v>62100</v>
+        <v>14033000</v>
       </c>
       <c r="G81" s="3">
-        <v>-350800</v>
+        <v>1201000</v>
       </c>
       <c r="H81" s="3">
-        <v>-560300</v>
+        <v>-6783000</v>
       </c>
       <c r="I81" s="3">
-        <v>-604300</v>
+        <v>-10834000</v>
       </c>
       <c r="J81" s="3">
+        <v>-11685000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1271200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>827100</v>
+        <v>16070000</v>
       </c>
       <c r="E83" s="3">
-        <v>827100</v>
+        <v>15992000</v>
       </c>
       <c r="F83" s="3">
-        <v>758100</v>
+        <v>15991000</v>
       </c>
       <c r="G83" s="3">
-        <v>732700</v>
+        <v>14658000</v>
       </c>
       <c r="H83" s="3">
-        <v>732700</v>
+        <v>14167000</v>
       </c>
       <c r="I83" s="3">
-        <v>888800</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>14167000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17184000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1609000</v>
+        <v>26545000</v>
       </c>
       <c r="E89" s="3">
-        <v>2024700</v>
+        <v>31110000</v>
       </c>
       <c r="F89" s="3">
-        <v>988700</v>
+        <v>39147000</v>
       </c>
       <c r="G89" s="3">
-        <v>620200</v>
+        <v>19116000</v>
       </c>
       <c r="H89" s="3">
-        <v>65700</v>
+        <v>11991000</v>
       </c>
       <c r="I89" s="3">
-        <v>290900</v>
+        <v>1270000</v>
       </c>
       <c r="J89" s="3">
+        <v>5624000</v>
+      </c>
+      <c r="K89" s="3">
         <v>335500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-556100</v>
+        <v>-11631000</v>
       </c>
       <c r="E91" s="3">
-        <v>-283300</v>
+        <v>-10753000</v>
       </c>
       <c r="F91" s="3">
-        <v>-501400</v>
+        <v>-5477000</v>
       </c>
       <c r="G91" s="3">
-        <v>-625800</v>
+        <v>-9694000</v>
       </c>
       <c r="H91" s="3">
-        <v>-567600</v>
+        <v>-12099000</v>
       </c>
       <c r="I91" s="3">
-        <v>-289500</v>
+        <v>-10974000</v>
       </c>
       <c r="J91" s="3">
+        <v>-5597000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-165400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>600400</v>
+        <v>-15687000</v>
       </c>
       <c r="E94" s="3">
-        <v>-283400</v>
+        <v>11609000</v>
       </c>
       <c r="F94" s="3">
-        <v>-415500</v>
+        <v>-5479000</v>
       </c>
       <c r="G94" s="3">
-        <v>-344500</v>
+        <v>-8033000</v>
       </c>
       <c r="H94" s="3">
-        <v>-278900</v>
+        <v>-6661000</v>
       </c>
       <c r="I94" s="3">
-        <v>-115500</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-5393000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2234000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2887,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2207600</v>
+        <v>-19542000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2049000</v>
+        <v>-42684000</v>
       </c>
       <c r="F100" s="3">
-        <v>-644800</v>
+        <v>-39618000</v>
       </c>
       <c r="G100" s="3">
-        <v>-446100</v>
+        <v>-12467000</v>
       </c>
       <c r="H100" s="3">
-        <v>168200</v>
+        <v>-8625000</v>
       </c>
       <c r="I100" s="3">
-        <v>-260500</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>3253000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5036000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>108100</v>
+        <v>1011000</v>
       </c>
       <c r="E101" s="3">
-        <v>116100</v>
+        <v>2090000</v>
       </c>
       <c r="F101" s="3">
-        <v>212900</v>
+        <v>2244000</v>
       </c>
       <c r="G101" s="3">
-        <v>36600</v>
+        <v>4117000</v>
       </c>
       <c r="H101" s="3">
-        <v>184500</v>
+        <v>708000</v>
       </c>
       <c r="I101" s="3">
-        <v>-103600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>3568000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2004000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>109900</v>
+        <v>-7673000</v>
       </c>
       <c r="E102" s="3">
-        <v>-191700</v>
+        <v>2125000</v>
       </c>
       <c r="F102" s="3">
-        <v>141400</v>
+        <v>-3706000</v>
       </c>
       <c r="G102" s="3">
-        <v>-133800</v>
+        <v>2733000</v>
       </c>
       <c r="H102" s="3">
-        <v>139500</v>
+        <v>-2587000</v>
       </c>
       <c r="I102" s="3">
-        <v>-188800</v>
+        <v>2698000</v>
       </c>
       <c r="J102" s="3">
+        <v>-3650000</v>
+      </c>
+      <c r="K102" s="3">
         <v>402100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
